--- a/CodingPaths.xlsx
+++ b/CodingPaths.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4F8525-DB30-47D5-BB47-5FF6CD177114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Trees" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Linear DS" sheetId="1" r:id="rId1"/>
+    <sheet name="Trees" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,100 +26,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Points to Remember</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binary Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binary Tree to Doubly linked list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Go to Content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. It’s all about taking the tree and converting that one into DLL with inorder sequence.
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Issues</t>
+  </si>
+  <si>
+    <t>Points to Remember</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Singly Linked List</t>
+  </si>
+  <si>
+    <t>Reverse a Linked List</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>3 pointer approach</t>
+  </si>
+  <si>
+    <t>Reverse a Linked List in groups of given size</t>
+  </si>
+  <si>
+    <t>Go to Content</t>
+  </si>
+  <si>
+    <t>Keep it simple stupid</t>
+  </si>
+  <si>
+    <t>CP/GFG/DS/rev_ll_of_k_grp.cpp</t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree to Doubly linked list</t>
+  </si>
+  <si>
+    <t>1. It’s all about taking the tree and converting that one into DLL with inorder sequence.
      Never do In order traversal and create DLL accordingly.</t>
   </si>
   <si>
-    <t xml:space="preserve">CP/GFG/DS/binaryTreeToDll.cpp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lowest Common Ancestor in a binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two methods are there, 
+    <t>CP/GFG/DS/binaryTreeToDll.cpp</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor in a binary tree</t>
+  </si>
+  <si>
+    <t>Two methods are there, 
 Both are importent to gain complete understanding</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -137,14 +151,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF808080"/>
       </left>
@@ -160,65 +174,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="3">
+    <cellStyle name="Heading 2 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Heading 2" xfId="20"/>
-    <cellStyle name="Note" xfId="21"/>
+    <cellStyle name="Note 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -277,33 +256,340 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="76.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="42.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.68"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -323,46 +609,132 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Go to Content"/>
-    <hyperlink ref="C3" r:id="rId2" display="Go to Content"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="76.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C4" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/CodingPaths.xlsx
+++ b/CodingPaths.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4157D70F-1695-4CD7-A3E7-09A1A992C08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Linear DS" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Trees" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="System Design" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="STL" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Linear DS" sheetId="1" r:id="rId1"/>
+    <sheet name="Trees" sheetId="2" r:id="rId2"/>
+    <sheet name="System Design" sheetId="3" r:id="rId3"/>
+    <sheet name="Others" sheetId="5" r:id="rId4"/>
+    <sheet name="STL" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -23,74 +29,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Points to Remember</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singly Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 pointer approach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a Linked List in groups of given size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Go to Content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keep it simple stupid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP/GFG/DS/rev_ll_of_k_grp.cpp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binary Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binary Tree to Doubly linked list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. It’s all about taking the tree and converting that one into DLL with inorder sequence.
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Issues</t>
+  </si>
+  <si>
+    <t>Points to Remember</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Singly Linked List</t>
+  </si>
+  <si>
+    <t>Reverse a Linked List</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>3 pointer approach</t>
+  </si>
+  <si>
+    <t>Reverse a Linked List in groups of given size</t>
+  </si>
+  <si>
+    <t>Go to Content</t>
+  </si>
+  <si>
+    <t>Keep it simple stupid</t>
+  </si>
+  <si>
+    <t>CP/GFG/DS/rev_ll_of_k_grp.cpp</t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree to Doubly linked list</t>
+  </si>
+  <si>
+    <t>1. It’s all about taking the tree and converting that one into DLL with inorder sequence.
      Never do In order traversal and create DLL accordingly.</t>
   </si>
   <si>
-    <t xml:space="preserve">CP/GFG/DS/binaryTreeToDll.cpp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lowest Common Ancestor in a binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two methods are there, 
+    <t>CP/GFG/DS/binaryTreeToDll.cpp</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor in a binary tree</t>
+  </si>
+  <si>
+    <t>Two methods are there, 
 Both are importent to gain complete understanding</t>
   </si>
   <si>
-    <t xml:space="preserve">Caching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LRU Cache Implementation</t>
+    <t>Caching</t>
+  </si>
+  <si>
+    <t>LRU Cache Implementation</t>
   </si>
   <si>
     <t xml:space="preserve">1. https://www.geeksforgeeks.org/lru-cache-implementation/
@@ -98,43 +104,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Linear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">content</t>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>Youtube series</t>
+  </si>
+  <si>
+    <t>SDE series by Kabir Singh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -164,6 +158,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -186,14 +188,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF808080"/>
       </left>
@@ -209,89 +211,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="4">
+    <cellStyle name="Heading 2 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Heading 2 1" xfId="20"/>
-    <cellStyle name="Note 2" xfId="21"/>
+    <cellStyle name="Note 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -350,34 +310,342 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="37.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28.3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="11.63"/>
+    <col min="1" max="1" width="16" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="1"/>
+    <col min="5" max="5" width="21.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" style="1" customWidth="1"/>
+    <col min="7" max="1024" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -397,7 +665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -411,7 +679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -431,13 +699,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Content"/>
-    <hyperlink ref="C3" r:id="rId2" display="Go to Content"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -445,28 +712,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMJ4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="38.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="76.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="42.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="28.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="11.63"/>
+    <col min="1" max="1" width="11" style="3" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="76.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" style="3" customWidth="1"/>
+    <col min="7" max="1024" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -486,7 +750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -503,7 +767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -517,18 +781,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C4" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Go to Content"/>
-    <hyperlink ref="C3" r:id="rId2" display="Go to Content"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -536,27 +799,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="50.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="11.57"/>
+    <col min="1" max="1" width="8.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="1" customWidth="1"/>
+    <col min="6" max="1024" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -576,7 +836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -588,10 +848,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -599,19 +858,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EC4779-B0BB-46E1-BFC7-33729073856C}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -622,7 +882,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{4748B968-EB99-43B1-9D81-EDBDF86B2DA7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
@@ -635,12 +935,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="content"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/CodingPaths.xlsx
+++ b/CodingPaths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4157D70F-1695-4CD7-A3E7-09A1A992C08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB7AFCD-8410-4B15-8F8D-DA1F7D62BE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>Type</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>SDE series by Kabir Singh</t>
+  </si>
+  <si>
+    <t>Youtube Resource</t>
+  </si>
+  <si>
+    <t>DSA Roadmap | Nishant Chahar</t>
+  </si>
+  <si>
+    <t>Youtube video</t>
   </si>
 </sst>
 </file>
@@ -859,16 +868,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EC4779-B0BB-46E1-BFC7-33729073856C}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -893,9 +903,22 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{4748B968-EB99-43B1-9D81-EDBDF86B2DA7}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{A3EED01D-488F-45EA-AC9D-DC815A7B6A5B}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{87DA3D73-A7D0-478B-8505-8C759D4F8D68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CodingPaths.xlsx
+++ b/CodingPaths.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Linear DS" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t xml:space="preserve">Type</t>
   </si>
@@ -133,6 +133,24 @@
   </si>
   <si>
     <t xml:space="preserve">Youtube video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interview Questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-Threading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thread-Safety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDE Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Striver SDE sheet</t>
   </si>
   <si>
     <t xml:space="preserve">Codechef Boot camp 12/07</t>
@@ -341,11 +359,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -431,7 +449,7 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -442,7 +460,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.86"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28.3"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="11.57"/>
   </cols>
   <sheetData>
@@ -532,7 +550,7 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -632,7 +650,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -704,18 +722,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="41.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="41.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -751,24 +769,68 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G8" s="0" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>35</v>
       </c>
+      <c r="B4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G9" s="7" t="s">
-        <v>36</v>
+      <c r="G9" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G11" s="0" t="s">
-        <v>38</v>
+      <c r="G11" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -776,8 +838,12 @@
     <hyperlink ref="C2" r:id="rId1" display="Content"/>
     <hyperlink ref="B3" r:id="rId2" display="DSA Roadmap | Nishant Chahar"/>
     <hyperlink ref="C3" r:id="rId3" display="Youtube video"/>
-    <hyperlink ref="G9" r:id="rId4" display="https://www.codechef.com/problems/CHCBOX"/>
-    <hyperlink ref="G10" r:id="rId5" display="https://www.codechef.com/problems/EVENGAME"/>
+    <hyperlink ref="C4" r:id="rId4" display="Link"/>
+    <hyperlink ref="C5" r:id="rId5" display="Link"/>
+    <hyperlink ref="C6" r:id="rId6" display="Link"/>
+    <hyperlink ref="C7" r:id="rId7" display="Link"/>
+    <hyperlink ref="G10" r:id="rId8" display="https://www.codechef.com/problems/CHCBOX"/>
+    <hyperlink ref="G11" r:id="rId9" display="https://www.codechef.com/problems/EVENGAME"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -796,11 +862,11 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M24" activeCellId="0" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -814,14 +880,14 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>41</v>
+      <c r="A2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/CodingPaths.xlsx
+++ b/CodingPaths.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
   <si>
     <t xml:space="preserve">Type</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t xml:space="preserve">Thread-Safety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPU Scheduling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Networks</t>
   </si>
   <si>
     <t xml:space="preserve">SDE Sheet</t>
@@ -450,7 +459,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="1" sqref="A8:A9 E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -551,7 +560,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="1" sqref="A8:A9 D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -651,7 +660,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
+      <selection pane="topLeft" activeCell="B35" activeCellId="1" sqref="A8:A9 B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -722,16 +731,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="41.87"/>
   </cols>
@@ -804,33 +813,66 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C7" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G9" s="0" t="s">
+      <c r="C8" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G10" s="7" t="s">
+      <c r="C9" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G11" s="7" t="s">
+      <c r="B10" s="0" t="s">
         <v>43</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G12" s="0" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -842,8 +884,11 @@
     <hyperlink ref="C5" r:id="rId5" display="Link"/>
     <hyperlink ref="C6" r:id="rId6" display="Link"/>
     <hyperlink ref="C7" r:id="rId7" display="Link"/>
-    <hyperlink ref="G10" r:id="rId8" display="https://www.codechef.com/problems/CHCBOX"/>
-    <hyperlink ref="G11" r:id="rId9" display="https://www.codechef.com/problems/EVENGAME"/>
+    <hyperlink ref="C8" r:id="rId8" display="Link"/>
+    <hyperlink ref="C9" r:id="rId9" display="Link"/>
+    <hyperlink ref="C10" r:id="rId10" display="Link"/>
+    <hyperlink ref="G13" r:id="rId11" display="https://www.codechef.com/problems/CHCBOX"/>
+    <hyperlink ref="G14" r:id="rId12" display="https://www.codechef.com/problems/EVENGAME"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -863,10 +908,10 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M24" activeCellId="0" sqref="M24"/>
+      <selection pane="topLeft" activeCell="M24" activeCellId="1" sqref="A8:A9 M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -881,13 +926,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
